--- a/tidyverse/sdr_paper1/vensim/SimulationOutput.xlsx
+++ b/tidyverse/sdr_paper1/vensim/SimulationOutput.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimd/Dropbox/R Projects/SDMR/tidyverse/sdr_paper1/vensim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4592EDB-F1F8-7A46-8F8A-A646223170D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>Time (Month)</t>
-  </si>
   <si>
     <t>Beta AA</t>
   </si>
@@ -161,11 +164,14 @@
   <si>
     <t>Total Population</t>
   </si>
+  <si>
+    <t>Time (Day)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -226,6 +232,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -550,162 +564,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AS19" sqref="AS19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="44" max="47" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -848,7 +862,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.125</v>
       </c>
@@ -991,7 +1005,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.25</v>
       </c>
@@ -1134,7 +1148,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.375</v>
       </c>
@@ -1277,7 +1291,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -1420,7 +1434,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.625</v>
       </c>
@@ -1563,7 +1577,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.75</v>
       </c>
@@ -1706,7 +1720,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.875</v>
       </c>
@@ -1849,7 +1863,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1992,7 +2006,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.125</v>
       </c>
@@ -2135,7 +2149,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.25</v>
       </c>
@@ -2278,7 +2292,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.375</v>
       </c>
@@ -2421,7 +2435,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.5</v>
       </c>
@@ -2564,7 +2578,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.625</v>
       </c>
@@ -2707,7 +2721,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.75</v>
       </c>
@@ -2850,7 +2864,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.875</v>
       </c>
@@ -2993,7 +3007,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3136,7 +3150,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2.125</v>
       </c>
@@ -3279,7 +3293,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2.25</v>
       </c>
@@ -3422,7 +3436,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2.375</v>
       </c>
@@ -3565,7 +3579,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2.5</v>
       </c>
@@ -3708,7 +3722,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2.625</v>
       </c>
@@ -3851,7 +3865,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2.75</v>
       </c>
@@ -3994,7 +4008,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2.875</v>
       </c>
@@ -4137,7 +4151,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -4280,7 +4294,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3.125</v>
       </c>
@@ -4423,7 +4437,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3.25</v>
       </c>
@@ -4566,7 +4580,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3.375</v>
       </c>
@@ -4709,7 +4723,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3.5</v>
       </c>
@@ -4852,7 +4866,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3.625</v>
       </c>
@@ -4995,7 +5009,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3.75</v>
       </c>
@@ -5138,7 +5152,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3.875</v>
       </c>
@@ -5281,7 +5295,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -5424,7 +5438,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4.125</v>
       </c>
@@ -5567,7 +5581,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4.25</v>
       </c>
@@ -5710,7 +5724,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4.375</v>
       </c>
@@ -5853,7 +5867,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="38" spans="1:47">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4.5</v>
       </c>
@@ -5996,7 +6010,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4.625</v>
       </c>
@@ -6139,7 +6153,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="40" spans="1:47">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4.75</v>
       </c>
@@ -6282,7 +6296,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="41" spans="1:47">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4.875</v>
       </c>
@@ -6425,7 +6439,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -6568,7 +6582,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5.125</v>
       </c>
@@ -6711,7 +6725,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5.25</v>
       </c>
@@ -6854,7 +6868,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5.375</v>
       </c>
@@ -6997,7 +7011,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5.5</v>
       </c>
@@ -7140,7 +7154,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5.625</v>
       </c>
@@ -7283,7 +7297,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="48" spans="1:47">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5.75</v>
       </c>
@@ -7426,7 +7440,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="49" spans="1:47">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5.875</v>
       </c>
@@ -7569,7 +7583,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="50" spans="1:47">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>6</v>
       </c>
@@ -7712,7 +7726,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="51" spans="1:47">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6.125</v>
       </c>
@@ -7855,7 +7869,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="52" spans="1:47">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6.25</v>
       </c>
@@ -7998,7 +8012,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="53" spans="1:47">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>6.375</v>
       </c>
@@ -8141,7 +8155,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="54" spans="1:47">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>6.5</v>
       </c>
@@ -8284,7 +8298,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="55" spans="1:47">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>6.625</v>
       </c>
@@ -8427,7 +8441,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="56" spans="1:47">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6.75</v>
       </c>
@@ -8570,7 +8584,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="57" spans="1:47">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6.875</v>
       </c>
@@ -8713,7 +8727,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="58" spans="1:47">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>7</v>
       </c>
@@ -8856,7 +8870,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="59" spans="1:47">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>7.125</v>
       </c>
@@ -8999,7 +9013,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="60" spans="1:47">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7.25</v>
       </c>
@@ -9142,7 +9156,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="61" spans="1:47">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>7.375</v>
       </c>
@@ -9285,7 +9299,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="62" spans="1:47">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>7.5</v>
       </c>
@@ -9428,7 +9442,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="63" spans="1:47">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>7.625</v>
       </c>
@@ -9571,7 +9585,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="64" spans="1:47">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>7.75</v>
       </c>
@@ -9714,7 +9728,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="65" spans="1:47">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7.875</v>
       </c>
@@ -9857,7 +9871,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="66" spans="1:47">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>8</v>
       </c>
@@ -10000,7 +10014,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="67" spans="1:47">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>8.125</v>
       </c>
@@ -10143,7 +10157,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="68" spans="1:47">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>8.25</v>
       </c>
@@ -10286,7 +10300,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="69" spans="1:47">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>8.375</v>
       </c>
@@ -10429,7 +10443,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="70" spans="1:47">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>8.5</v>
       </c>
@@ -10572,7 +10586,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="71" spans="1:47">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>8.625</v>
       </c>
@@ -10715,7 +10729,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="72" spans="1:47">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>8.75</v>
       </c>
@@ -10858,7 +10872,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="73" spans="1:47">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>8.875</v>
       </c>
@@ -11001,7 +11015,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="74" spans="1:47">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>9</v>
       </c>
@@ -11144,7 +11158,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="75" spans="1:47">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>9.125</v>
       </c>
@@ -11287,7 +11301,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="76" spans="1:47">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>9.25</v>
       </c>
@@ -11430,7 +11444,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="77" spans="1:47">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>9.375</v>
       </c>
@@ -11573,7 +11587,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="78" spans="1:47">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>9.5</v>
       </c>
@@ -11716,7 +11730,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="79" spans="1:47">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>9.625</v>
       </c>
@@ -11859,7 +11873,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="80" spans="1:47">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>9.75</v>
       </c>
@@ -12002,7 +12016,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="81" spans="1:47">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>9.875</v>
       </c>
@@ -12145,7 +12159,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="82" spans="1:47">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10</v>
       </c>
@@ -12288,7 +12302,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="83" spans="1:47">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>10.125</v>
       </c>
@@ -12431,7 +12445,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="84" spans="1:47">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10.25</v>
       </c>
@@ -12574,7 +12588,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="85" spans="1:47">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>10.375</v>
       </c>
@@ -12717,7 +12731,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="86" spans="1:47">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>10.5</v>
       </c>
@@ -12860,7 +12874,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="87" spans="1:47">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10.625</v>
       </c>
@@ -13003,7 +13017,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="88" spans="1:47">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10.75</v>
       </c>
@@ -13146,7 +13160,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="89" spans="1:47">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10.875</v>
       </c>
@@ -13289,7 +13303,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="90" spans="1:47">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>11</v>
       </c>
@@ -13432,7 +13446,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="91" spans="1:47">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>11.125</v>
       </c>
@@ -13575,7 +13589,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="92" spans="1:47">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>11.25</v>
       </c>
@@ -13718,7 +13732,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="93" spans="1:47">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>11.375</v>
       </c>
@@ -13861,7 +13875,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="94" spans="1:47">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>11.5</v>
       </c>
@@ -14004,7 +14018,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="95" spans="1:47">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>11.625</v>
       </c>
@@ -14147,7 +14161,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="96" spans="1:47">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>11.75</v>
       </c>
@@ -14290,7 +14304,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="97" spans="1:47">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>11.875</v>
       </c>
@@ -14433,7 +14447,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="98" spans="1:47">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>12</v>
       </c>
@@ -14576,7 +14590,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="99" spans="1:47">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>12.125</v>
       </c>
@@ -14719,7 +14733,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="100" spans="1:47">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>12.25</v>
       </c>
@@ -14862,7 +14876,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="101" spans="1:47">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>12.375</v>
       </c>
@@ -15005,7 +15019,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="102" spans="1:47">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>12.5</v>
       </c>
@@ -15148,7 +15162,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="103" spans="1:47">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>12.625</v>
       </c>
@@ -15291,7 +15305,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="104" spans="1:47">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>12.75</v>
       </c>
@@ -15434,7 +15448,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="105" spans="1:47">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>12.875</v>
       </c>
@@ -15577,7 +15591,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="106" spans="1:47">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>13</v>
       </c>
@@ -15720,7 +15734,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="107" spans="1:47">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>13.125</v>
       </c>
@@ -15863,7 +15877,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="108" spans="1:47">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>13.25</v>
       </c>
@@ -16006,7 +16020,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="109" spans="1:47">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>13.375</v>
       </c>
@@ -16149,7 +16163,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="110" spans="1:47">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>13.5</v>
       </c>
@@ -16292,7 +16306,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="111" spans="1:47">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>13.625</v>
       </c>
@@ -16435,7 +16449,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="112" spans="1:47">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>13.75</v>
       </c>
@@ -16578,7 +16592,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="113" spans="1:47">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>13.875</v>
       </c>
@@ -16721,7 +16735,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="114" spans="1:47">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>14</v>
       </c>
@@ -16864,7 +16878,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="115" spans="1:47">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>14.125</v>
       </c>
@@ -17007,7 +17021,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="116" spans="1:47">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>14.25</v>
       </c>
@@ -17150,7 +17164,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="117" spans="1:47">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>14.375</v>
       </c>
@@ -17293,7 +17307,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="118" spans="1:47">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>14.5</v>
       </c>
@@ -17436,7 +17450,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="119" spans="1:47">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>14.625</v>
       </c>
@@ -17579,7 +17593,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="120" spans="1:47">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>14.75</v>
       </c>
@@ -17722,7 +17736,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="121" spans="1:47">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>14.875</v>
       </c>
@@ -17865,7 +17879,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="122" spans="1:47">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>15</v>
       </c>
@@ -18008,7 +18022,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="123" spans="1:47">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>15.125</v>
       </c>
@@ -18151,7 +18165,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="124" spans="1:47">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>15.25</v>
       </c>
@@ -18294,7 +18308,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="125" spans="1:47">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>15.375</v>
       </c>
@@ -18437,7 +18451,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="126" spans="1:47">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>15.5</v>
       </c>
@@ -18580,7 +18594,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="127" spans="1:47">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>15.625</v>
       </c>
@@ -18723,7 +18737,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="128" spans="1:47">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>15.75</v>
       </c>
@@ -18866,7 +18880,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="129" spans="1:47">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>15.875</v>
       </c>
@@ -19009,7 +19023,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="130" spans="1:47">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>16</v>
       </c>
@@ -19152,7 +19166,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="131" spans="1:47">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>16.125</v>
       </c>
@@ -19295,7 +19309,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="132" spans="1:47">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>16.25</v>
       </c>
@@ -19438,7 +19452,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="133" spans="1:47">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>16.375</v>
       </c>
@@ -19581,7 +19595,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="134" spans="1:47">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>16.5</v>
       </c>
@@ -19724,7 +19738,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="135" spans="1:47">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>16.625</v>
       </c>
@@ -19867,7 +19881,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="136" spans="1:47">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>16.75</v>
       </c>
@@ -20010,7 +20024,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="137" spans="1:47">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>16.875</v>
       </c>
@@ -20153,7 +20167,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="138" spans="1:47">
+    <row r="138" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>17</v>
       </c>
@@ -20296,7 +20310,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="139" spans="1:47">
+    <row r="139" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>17.125</v>
       </c>
@@ -20439,7 +20453,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="140" spans="1:47">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>17.25</v>
       </c>
@@ -20582,7 +20596,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="141" spans="1:47">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>17.375</v>
       </c>
@@ -20725,7 +20739,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="142" spans="1:47">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>17.5</v>
       </c>
@@ -20868,7 +20882,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="143" spans="1:47">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>17.625</v>
       </c>
@@ -21011,7 +21025,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="144" spans="1:47">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>17.75</v>
       </c>
@@ -21154,7 +21168,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="145" spans="1:47">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>17.875</v>
       </c>
@@ -21297,7 +21311,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="146" spans="1:47">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>18</v>
       </c>
@@ -21440,7 +21454,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="147" spans="1:47">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>18.125</v>
       </c>
@@ -21583,7 +21597,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="148" spans="1:47">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>18.25</v>
       </c>
@@ -21726,7 +21740,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="149" spans="1:47">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>18.375</v>
       </c>
@@ -21869,7 +21883,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="150" spans="1:47">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>18.5</v>
       </c>
@@ -22012,7 +22026,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="151" spans="1:47">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>18.625</v>
       </c>
@@ -22155,7 +22169,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="152" spans="1:47">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>18.75</v>
       </c>
@@ -22298,7 +22312,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="153" spans="1:47">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>18.875</v>
       </c>
@@ -22441,7 +22455,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="154" spans="1:47">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>19</v>
       </c>
@@ -22584,7 +22598,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="155" spans="1:47">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>19.125</v>
       </c>
@@ -22727,7 +22741,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="156" spans="1:47">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>19.25</v>
       </c>
@@ -22870,7 +22884,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="157" spans="1:47">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>19.375</v>
       </c>
@@ -23013,7 +23027,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="158" spans="1:47">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>19.5</v>
       </c>
@@ -23156,7 +23170,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="159" spans="1:47">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>19.625</v>
       </c>
@@ -23299,7 +23313,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="160" spans="1:47">
+    <row r="160" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>19.75</v>
       </c>
@@ -23442,7 +23456,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="161" spans="1:47">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>19.875</v>
       </c>
@@ -23585,7 +23599,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="162" spans="1:47">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>20</v>
       </c>
